--- a/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>d747e554-8a89-48f4-9244-020b0cafd3c7</t>
+    <t>d936a796-9b5e-45ea-935a-28b563b3215c</t>
   </si>
 </sst>
 </file>

--- a/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>d936a796-9b5e-45ea-935a-28b563b3215c</t>
+    <t>c778f7c9-d327-43a6-bfd9-55db068429d7</t>
   </si>
 </sst>
 </file>

--- a/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>c778f7c9-d327-43a6-bfd9-55db068429d7</t>
+    <t>2e5d9415-9615-4439-bb1d-46200d1889e0</t>
   </si>
 </sst>
 </file>

--- a/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>2e5d9415-9615-4439-bb1d-46200d1889e0</t>
+    <t>3d4e7cc9-93c3-46cc-88fb-6f95394ac9d1</t>
   </si>
 </sst>
 </file>

--- a/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>3d4e7cc9-93c3-46cc-88fb-6f95394ac9d1</t>
+    <t>630a6805-c419-4840-a486-2c1fbcf5e6b7</t>
   </si>
 </sst>
 </file>

--- a/storage/app/xlsx/seed_cidades_df.xlsx
+++ b/storage/app/xlsx/seed_cidades_df.xlsx
@@ -23,7 +23,7 @@
     <t>BRASILIENSE</t>
   </si>
   <si>
-    <t>630a6805-c419-4840-a486-2c1fbcf5e6b7</t>
+    <t>e305ea49-9836-414a-920e-320016dee85c</t>
   </si>
 </sst>
 </file>
